--- a/data_year/zb/文化/艺术表演场馆基本情况/艺术表演场馆艺术演出场次.xlsx
+++ b/data_year/zb/文化/艺术表演场馆基本情况/艺术表演场馆艺术演出场次.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,748 +528,693 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.58</v>
+      </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>6.04</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>16.9</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>75.23</v>
       </c>
       <c r="F2" t="n">
-        <v>46</v>
+        <v>48.5</v>
       </c>
       <c r="G2" t="n">
-        <v>56</v>
+        <v>86.26000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>69</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>32.31</v>
       </c>
       <c r="J2" t="n">
-        <v>27</v>
+        <v>40.15</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>71</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>1.62</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>28.08</v>
       </c>
       <c r="P2" t="n">
-        <v>10</v>
+        <v>29.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>96</v>
+        <v>147.23</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>5.68</v>
       </c>
       <c r="S2" t="n">
-        <v>6</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.46</v>
+        <v>1.04</v>
       </c>
       <c r="C3" t="n">
-        <v>4.69</v>
+        <v>5.87</v>
       </c>
       <c r="D3" t="n">
-        <v>22.29</v>
+        <v>13.23</v>
       </c>
       <c r="E3" t="n">
-        <v>75.34999999999999</v>
+        <v>80.16</v>
       </c>
       <c r="F3" t="n">
-        <v>50.14</v>
+        <v>62.06</v>
       </c>
       <c r="G3" t="n">
-        <v>89.28</v>
+        <v>71.55</v>
       </c>
       <c r="H3" t="n">
-        <v>79.16</v>
+        <v>66.55</v>
       </c>
       <c r="I3" t="n">
-        <v>26.01</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>24.88</v>
+      </c>
+      <c r="K3" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="L3" t="n">
+        <v>95.61</v>
+      </c>
       <c r="M3" t="n">
-        <v>74.15000000000001</v>
+        <v>58.86</v>
       </c>
       <c r="N3" t="n">
-        <v>1.43</v>
+        <v>1.89</v>
       </c>
       <c r="O3" t="n">
-        <v>33.92</v>
+        <v>26.43</v>
       </c>
       <c r="P3" t="n">
-        <v>20.86</v>
+        <v>27.35</v>
       </c>
       <c r="Q3" t="n">
-        <v>149.49</v>
+        <v>139.02</v>
       </c>
       <c r="R3" t="n">
-        <v>7.06</v>
+        <v>2.49</v>
       </c>
       <c r="S3" t="n">
-        <v>2.88</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.58</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>6.04</v>
+        <v>6.5</v>
       </c>
       <c r="D4" t="n">
-        <v>16.9</v>
+        <v>15.1</v>
       </c>
       <c r="E4" t="n">
-        <v>75.23</v>
+        <v>100.85</v>
       </c>
       <c r="F4" t="n">
-        <v>48.5</v>
+        <v>77.22</v>
       </c>
       <c r="G4" t="n">
-        <v>86.26000000000001</v>
+        <v>99.94</v>
       </c>
       <c r="H4" t="n">
-        <v>87.90000000000001</v>
+        <v>83.41</v>
       </c>
       <c r="I4" t="n">
-        <v>32.31</v>
+        <v>56.86</v>
       </c>
       <c r="J4" t="n">
-        <v>40.15</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>44.81</v>
+      </c>
+      <c r="K4" t="n">
+        <v>56.35</v>
+      </c>
+      <c r="L4" t="n">
+        <v>116.36</v>
+      </c>
       <c r="M4" t="n">
-        <v>72.01000000000001</v>
+        <v>71.86</v>
       </c>
       <c r="N4" t="n">
-        <v>1.62</v>
+        <v>1.13</v>
       </c>
       <c r="O4" t="n">
-        <v>28.08</v>
+        <v>15.1</v>
       </c>
       <c r="P4" t="n">
-        <v>29.08</v>
+        <v>23.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>147.23</v>
+        <v>172.71</v>
       </c>
       <c r="R4" t="n">
-        <v>5.68</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>4.94</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.04</v>
+        <v>0.8</v>
       </c>
       <c r="C5" t="n">
-        <v>5.87</v>
+        <v>1.38</v>
       </c>
       <c r="D5" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="E5" t="n">
-        <v>80.16</v>
-      </c>
+        <v>0.39</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>62.06</v>
+        <v>27.85</v>
       </c>
       <c r="G5" t="n">
-        <v>71.55</v>
+        <v>27.34</v>
       </c>
       <c r="H5" t="n">
-        <v>66.55</v>
+        <v>47.96</v>
       </c>
       <c r="I5" t="n">
-        <v>40</v>
+        <v>26.36</v>
       </c>
       <c r="J5" t="n">
-        <v>24.88</v>
+        <v>19.47</v>
       </c>
       <c r="K5" t="n">
-        <v>43.41</v>
+        <v>30</v>
       </c>
       <c r="L5" t="n">
-        <v>95.61</v>
-      </c>
-      <c r="M5" t="n">
-        <v>58.86</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>1.89</v>
+        <v>0.13</v>
       </c>
       <c r="O5" t="n">
-        <v>26.43</v>
+        <v>11.53</v>
       </c>
       <c r="P5" t="n">
-        <v>27.35</v>
+        <v>15.15</v>
       </c>
       <c r="Q5" t="n">
-        <v>139.02</v>
+        <v>66.02</v>
       </c>
       <c r="R5" t="n">
-        <v>2.49</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>3.74</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.39</v>
       </c>
       <c r="C6" t="n">
-        <v>6.5</v>
+        <v>1.41</v>
       </c>
       <c r="D6" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>100.85</v>
-      </c>
+        <v>0.59</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>77.22</v>
+        <v>32.99</v>
       </c>
       <c r="G6" t="n">
-        <v>99.94</v>
+        <v>24.03</v>
       </c>
       <c r="H6" t="n">
-        <v>83.41</v>
+        <v>49.51</v>
       </c>
       <c r="I6" t="n">
-        <v>56.86</v>
+        <v>32.36</v>
       </c>
       <c r="J6" t="n">
-        <v>44.81</v>
+        <v>14.7</v>
       </c>
       <c r="K6" t="n">
-        <v>56.35</v>
+        <v>36.86</v>
       </c>
       <c r="L6" t="n">
-        <v>116.36</v>
-      </c>
-      <c r="M6" t="n">
-        <v>71.86</v>
-      </c>
+        <v>32.68</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>1.13</v>
+        <v>0.1</v>
       </c>
       <c r="O6" t="n">
-        <v>15.1</v>
+        <v>11.76</v>
       </c>
       <c r="P6" t="n">
-        <v>23.78</v>
+        <v>17.88</v>
       </c>
       <c r="Q6" t="n">
-        <v>172.71</v>
+        <v>69.54000000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>4.18</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="C7" t="n">
-        <v>1.38</v>
+        <v>4.42</v>
       </c>
       <c r="D7" t="n">
-        <v>0.39</v>
+        <v>15.79</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>27.85</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>27.34</v>
+        <v>99.54000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>47.96</v>
+        <v>54.18</v>
       </c>
       <c r="I7" t="n">
-        <v>26.36</v>
+        <v>22.96</v>
       </c>
       <c r="J7" t="n">
-        <v>19.47</v>
+        <v>20.65</v>
       </c>
       <c r="K7" t="n">
-        <v>30</v>
+        <v>41.13</v>
       </c>
       <c r="L7" t="n">
-        <v>36</v>
+        <v>95.7</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.13</v>
+        <v>0.58</v>
       </c>
       <c r="O7" t="n">
-        <v>11.53</v>
+        <v>13.46</v>
       </c>
       <c r="P7" t="n">
-        <v>15.15</v>
+        <v>18.43</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.02</v>
+        <v>136.83</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="S7" t="n">
-        <v>1.66</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="C8" t="n">
-        <v>1.41</v>
+        <v>4.15</v>
       </c>
       <c r="D8" t="n">
-        <v>0.59</v>
+        <v>19.27</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>32.99</v>
+        <v>83</v>
       </c>
       <c r="G8" t="n">
-        <v>24.03</v>
+        <v>129.68</v>
       </c>
       <c r="H8" t="n">
-        <v>49.51</v>
+        <v>65.86</v>
       </c>
       <c r="I8" t="n">
-        <v>32.36</v>
+        <v>46.3</v>
       </c>
       <c r="J8" t="n">
-        <v>14.7</v>
+        <v>32.39</v>
       </c>
       <c r="K8" t="n">
-        <v>36.86</v>
+        <v>52.16</v>
       </c>
       <c r="L8" t="n">
-        <v>32.68</v>
+        <v>138.75</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="O8" t="n">
-        <v>11.76</v>
+        <v>13.76</v>
       </c>
       <c r="P8" t="n">
-        <v>17.88</v>
+        <v>45.89</v>
       </c>
       <c r="Q8" t="n">
-        <v>69.54000000000001</v>
+        <v>190.91</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>2.91</v>
       </c>
       <c r="S8" t="n">
-        <v>1.86</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.88</v>
+        <v>1.21</v>
       </c>
       <c r="C9" t="n">
-        <v>4.42</v>
+        <v>5.61</v>
       </c>
       <c r="D9" t="n">
-        <v>15.79</v>
+        <v>24.03</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>71.81999999999999</v>
+        <v>86.62</v>
       </c>
       <c r="G9" t="n">
-        <v>99.54000000000001</v>
+        <v>158.9</v>
       </c>
       <c r="H9" t="n">
-        <v>54.18</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>22.96</v>
+        <v>37.53</v>
       </c>
       <c r="J9" t="n">
-        <v>20.65</v>
+        <v>34.81</v>
       </c>
       <c r="K9" t="n">
-        <v>41.13</v>
+        <v>48.91</v>
       </c>
       <c r="L9" t="n">
-        <v>95.7</v>
+        <v>162.9</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>0.58</v>
+        <v>1.01</v>
       </c>
       <c r="O9" t="n">
-        <v>13.46</v>
+        <v>14.19</v>
       </c>
       <c r="P9" t="n">
-        <v>18.43</v>
+        <v>42</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.83</v>
+        <v>211.81</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="S9" t="n">
-        <v>5.15</v>
+        <v>17.74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>4.15</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>19.27</v>
+        <v>19</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G10" t="n">
-        <v>129.68</v>
+        <v>137</v>
       </c>
       <c r="H10" t="n">
-        <v>65.86</v>
+        <v>58</v>
       </c>
       <c r="I10" t="n">
-        <v>46.3</v>
+        <v>27</v>
       </c>
       <c r="J10" t="n">
-        <v>32.39</v>
+        <v>29</v>
       </c>
       <c r="K10" t="n">
-        <v>52.16</v>
+        <v>40</v>
       </c>
       <c r="L10" t="n">
-        <v>138.75</v>
+        <v>139</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>13.76</v>
+        <v>13</v>
       </c>
       <c r="P10" t="n">
-        <v>45.89</v>
+        <v>35</v>
       </c>
       <c r="Q10" t="n">
-        <v>190.91</v>
+        <v>179</v>
       </c>
       <c r="R10" t="n">
-        <v>2.91</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>5.97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="C11" t="n">
-        <v>5.61</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>24.03</v>
+        <v>47.56</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>86.62</v>
+        <v>85.41</v>
       </c>
       <c r="G11" t="n">
-        <v>158.9</v>
+        <v>212.2</v>
       </c>
       <c r="H11" t="n">
-        <v>68.40000000000001</v>
+        <v>58.74</v>
       </c>
       <c r="I11" t="n">
-        <v>37.53</v>
+        <v>17.96</v>
       </c>
       <c r="J11" t="n">
-        <v>34.81</v>
+        <v>44.31</v>
       </c>
       <c r="K11" t="n">
-        <v>48.91</v>
+        <v>38.31</v>
       </c>
       <c r="L11" t="n">
-        <v>162.9</v>
+        <v>207.07</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="O11" t="n">
-        <v>14.19</v>
+        <v>13.87</v>
       </c>
       <c r="P11" t="n">
-        <v>42</v>
+        <v>43.13</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.81</v>
+        <v>245.38</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>0.76</v>
       </c>
       <c r="S11" t="n">
-        <v>17.74</v>
+        <v>13.14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>27.2</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>85</v>
+        <v>53.6</v>
       </c>
       <c r="G12" t="n">
-        <v>137</v>
+        <v>299.5</v>
       </c>
       <c r="H12" t="n">
-        <v>58</v>
+        <v>32.7</v>
       </c>
       <c r="I12" t="n">
-        <v>27</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>29</v>
+        <v>189.8</v>
       </c>
       <c r="K12" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L12" t="n">
-        <v>139</v>
+        <v>293</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O12" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="P12" t="n">
-        <v>35</v>
+        <v>21.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.35</v>
+        <v>0.5</v>
       </c>
       <c r="C13" t="n">
-        <v>9.390000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>47.56</v>
+        <v>59.5</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>85.41</v>
+        <v>105.1</v>
       </c>
       <c r="G13" t="n">
-        <v>212.2</v>
+        <v>592.9</v>
       </c>
       <c r="H13" t="n">
-        <v>58.74</v>
+        <v>60.1</v>
       </c>
       <c r="I13" t="n">
-        <v>17.96</v>
+        <v>36.3</v>
       </c>
       <c r="J13" t="n">
-        <v>44.31</v>
+        <v>404.6</v>
       </c>
       <c r="K13" t="n">
-        <v>38.31</v>
+        <v>70.7</v>
       </c>
       <c r="L13" t="n">
-        <v>207.07</v>
+        <v>571.9</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>2.44</v>
+        <v>4.7</v>
       </c>
       <c r="O13" t="n">
-        <v>13.87</v>
+        <v>12.9</v>
       </c>
       <c r="P13" t="n">
-        <v>43.13</v>
+        <v>43.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>245.38</v>
+        <v>642.6</v>
       </c>
       <c r="R13" t="n">
-        <v>0.76</v>
+        <v>1.6</v>
       </c>
       <c r="S13" t="n">
-        <v>13.14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="G14" t="n">
-        <v>299.5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J14" t="n">
-        <v>189.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>24</v>
-      </c>
-      <c r="L14" t="n">
-        <v>293</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O14" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="P14" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>317</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="S14" t="n">
-        <v>17.5</v>
+        <v>16.1</v>
       </c>
     </row>
   </sheetData>
